--- a/results/mp/tinybert/corona/confidence/168/topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,121 +49,109 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>sure</t>
   </si>
   <si>
     <t>store</t>
@@ -175,16 +160,43 @@
     <t>you</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>of</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -542,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
         <v>23</v>
@@ -753,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7402597402597403</v>
+        <v>0.2461240310077519</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>389</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5416666666666666</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4285714285714285</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,45 +915,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3390557939914163</v>
-      </c>
-      <c r="C9">
-        <v>79</v>
-      </c>
-      <c r="D9">
-        <v>79</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>154</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -957,191 +945,95 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L10">
+        <v>67</v>
+      </c>
+      <c r="M10">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.825</v>
-      </c>
-      <c r="L10">
-        <v>33</v>
-      </c>
-      <c r="M10">
-        <v>33</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L11">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <v>94</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.78125</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>28</v>
       </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>42</v>
-      </c>
-      <c r="M11">
-        <v>42</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1727272727272727</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>91</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L12">
-        <v>46</v>
-      </c>
-      <c r="M12">
-        <v>46</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>121</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,21 +1071,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1205,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1231,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.725</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1257,47 +1149,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
+        <v>34</v>
+      </c>
+      <c r="M18">
+        <v>34</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6712328767123288</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1309,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1335,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1361,47 +1253,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6410256410256411</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L22">
+        <v>38</v>
+      </c>
+      <c r="M22">
+        <v>38</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>25</v>
-      </c>
-      <c r="M22">
-        <v>25</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1413,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5757575757575758</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1439,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L25">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="M25">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1465,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>64</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5454545454545454</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1491,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5352112676056338</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L27">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="M27">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1517,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5038759689922481</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1543,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1569,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4673913043478261</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1595,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4285714285714285</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L31">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1621,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3714285714285714</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1647,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.2972972972972973</v>
+        <v>0.328125</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1673,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.03658536585365853</v>
+        <v>0.03243847874720358</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1699,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>395</v>
+        <v>865</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.03070175438596491</v>
+        <v>0.03</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1725,111 +1617,345 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>442</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.02582159624413146</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>415</v>
+        <v>959</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.01264488935721812</v>
+        <v>0.0244173140954495</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>937</v>
+        <v>879</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.006876790830945559</v>
+        <v>0.01635514018691589</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N38">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O38">
-        <v>0.07999999999999996</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1733</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>0.01556739041376485</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>42</v>
+      </c>
+      <c r="N39">
+        <v>0.9</v>
+      </c>
+      <c r="O39">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.01449953227315248</v>
+      </c>
+      <c r="L40">
+        <v>31</v>
+      </c>
+      <c r="M40">
+        <v>36</v>
+      </c>
+      <c r="N40">
+        <v>0.86</v>
+      </c>
+      <c r="O40">
+        <v>0.14</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>0.01422275641025641</v>
+      </c>
+      <c r="L41">
+        <v>71</v>
+      </c>
+      <c r="M41">
+        <v>75</v>
+      </c>
+      <c r="N41">
+        <v>0.95</v>
+      </c>
+      <c r="O41">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.01410730804810361</v>
+      </c>
+      <c r="L42">
+        <v>61</v>
+      </c>
+      <c r="M42">
+        <v>65</v>
+      </c>
+      <c r="N42">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43">
+        <v>0.01386286998875983</v>
+      </c>
+      <c r="L43">
+        <v>37</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43">
+        <v>0.9</v>
+      </c>
+      <c r="O43">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K39">
-        <v>0.005741127348643006</v>
-      </c>
-      <c r="L39">
-        <v>11</v>
-      </c>
-      <c r="M39">
-        <v>11</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1905</v>
+      <c r="K44">
+        <v>0.01258680555555556</v>
+      </c>
+      <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44">
+        <v>0.85</v>
+      </c>
+      <c r="O44">
+        <v>0.15</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45">
+        <v>0.01193467336683417</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>0.9</v>
+      </c>
+      <c r="O45">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46">
+        <v>0.01127214170692432</v>
+      </c>
+      <c r="L46">
+        <v>35</v>
+      </c>
+      <c r="M46">
+        <v>37</v>
+      </c>
+      <c r="N46">
+        <v>0.95</v>
+      </c>
+      <c r="O46">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47">
+        <v>0.01007361487795428</v>
+      </c>
+      <c r="L47">
+        <v>52</v>
+      </c>
+      <c r="M47">
+        <v>55</v>
+      </c>
+      <c r="N47">
+        <v>0.95</v>
+      </c>
+      <c r="O47">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48">
+        <v>0.007993268826251577</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>0.9</v>
+      </c>
+      <c r="O48">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2358</v>
       </c>
     </row>
   </sheetData>
